--- a/data/00-raw-data/SampleData-Cost-Allocations.xlsx
+++ b/data/00-raw-data/SampleData-Cost-Allocations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lordgrimm32/Documents/CS/DataEngineering/main/projects/Resource-group-billing-pipeline/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lordgrimm32/Documents/CS/DataEngineering/main/projects/Resource-group-billing-pipeline/data/00-raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8D4387-1299-5F4C-AE7D-7DA54C33F991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9B6D24-7C67-FE49-A9BE-A743FC2D2F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{BB07F5B1-1975-41B7-A4B0-2FAFBE063945}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="13800" windowHeight="18560" xr2:uid="{BB07F5B1-1975-41B7-A4B0-2FAFBE063945}"/>
   </bookViews>
   <sheets>
     <sheet name="Billing Report 8 Jan 2025" sheetId="5" r:id="rId1"/>
@@ -742,11 +742,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A634D87-93DA-1346-84E9-DAFCC9584727}">
   <dimension ref="A1:BM4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AQ4" sqref="AQ4"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="190" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="33" max="33" width="32" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
